--- a/Reports/AreDifferent/decryption_heating2_areaUrLic/decryption_heating2_areaUrLic.xlsx
+++ b/Reports/AreDifferent/decryption_heating2_areaUrLic/decryption_heating2_areaUrLic.xlsx
@@ -215,8 +215,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -559,10 +560,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -868,7 +869,7 @@
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:F7"/>
+      <selection activeCell="F8" sqref="D8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Reports/AreDifferent/decryption_heating2_areaUrLic/decryption_heating2_areaUrLic.xlsx
+++ b/Reports/AreDifferent/decryption_heating2_areaUrLic/decryption_heating2_areaUrLic.xlsx
@@ -373,7 +373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -459,6 +459,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -505,9 +520,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -554,16 +566,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -869,7 +884,7 @@
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="D8:F8"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -912,124 +927,124 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="20.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="44"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="43"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:24" ht="20.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="44"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="43"/>
       <c r="M3" s="1"/>
       <c r="N3" s="15"/>
     </row>
     <row r="4" spans="1:24" ht="20.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="44"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="43"/>
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
     </row>
     <row r="6" spans="1:24" s="15" customFormat="1" ht="113.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="43" t="s">
+      <c r="K6" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="43" t="s">
+      <c r="L6" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="39"/>
-      <c r="S6" s="40" t="s">
+      <c r="O6" s="38"/>
+      <c r="S6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="T6" s="40" t="s">
+      <c r="T6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-    </row>
-    <row r="7" spans="1:24" s="26" customFormat="1" ht="15.75">
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+    </row>
+    <row r="7" spans="1:24" s="25" customFormat="1" ht="15.75">
       <c r="A7" s="21" t="s">
         <v>29</v>
       </c>
@@ -1039,111 +1054,111 @@
       <c r="C7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="23" t="s">
+      <c r="L7" s="48"/>
+      <c r="M7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="24"/>
-      <c r="O7" s="25" t="s">
+      <c r="N7" s="23"/>
+      <c r="O7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="25" t="s">
+      <c r="P7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="Q7" s="24">
         <v>1</v>
       </c>
-      <c r="R7" s="26" t="s">
+      <c r="R7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-    </row>
-    <row r="8" spans="1:24" s="26" customFormat="1" ht="15.75">
-      <c r="A8" s="29"/>
-      <c r="B8" s="36" t="s">
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+    </row>
+    <row r="8" spans="1:24" s="25" customFormat="1" ht="15.75">
+      <c r="A8" s="28"/>
+      <c r="B8" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="33" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="48" t="s">
+      <c r="J8" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="48" t="s">
+      <c r="K8" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="33"/>
-      <c r="M8" s="30"/>
-      <c r="O8" s="31" t="s">
+      <c r="L8" s="32"/>
+      <c r="M8" s="29"/>
+      <c r="O8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="31" t="s">
+      <c r="P8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q8" s="30">
         <v>1</v>
       </c>
-      <c r="R8" s="31" t="s">
+      <c r="R8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="S8" s="31" t="s">
+      <c r="S8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="T8" s="31" t="s">
+      <c r="T8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="U8" s="31"/>
-      <c r="V8" s="25" t="s">
+      <c r="U8" s="30"/>
+      <c r="V8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="W8" s="25" t="s">
+      <c r="W8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="X8" s="25">
+      <c r="X8" s="24">
         <v>0</v>
       </c>
     </row>
